--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -160,18 +160,18 @@
     <t>game</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t>worth</t>
   </si>
   <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>competition</t>
   </si>
   <si>
     <t>gt</t>
@@ -973,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2021,25 +2021,25 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L30">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -2047,25 +2047,25 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2073,25 +2073,25 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2099,25 +2099,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6808510638297872</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L33">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="M33">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2333,25 +2333,25 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5853658536585366</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L42">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2385,13 +2385,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5769230769230769</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="10:17">
